--- a/Techtree.xlsx
+++ b/Techtree.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Stargazers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A027B-DEC0-4415-B0A6-6C45E929007F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E571C1FE-78C2-4967-B791-2C4F96DBDE5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5BFF78C2-6C9C-4128-BD1E-20C610F5E044}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ship Technology" sheetId="1" r:id="rId1"/>
-    <sheet name="Weighted Automatic Cannon" sheetId="2" r:id="rId2"/>
-    <sheet name="Clustercannon" sheetId="3" r:id="rId3"/>
+    <sheet name="Combo" sheetId="4" r:id="rId1"/>
+    <sheet name="Ship Technology" sheetId="1" r:id="rId2"/>
+    <sheet name="Weighted Automatic Cannon" sheetId="2" r:id="rId3"/>
+    <sheet name="Clustercannon" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Ship Technology</t>
   </si>
   <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Deflects 1 hit, cooldown 10 seconds.</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -59,9 +54,6 @@
     <t>Overheater</t>
   </si>
   <si>
-    <t>Keep shooting when generator is empty, drains shield.</t>
-  </si>
-  <si>
     <t>Weighted Auto Cannon</t>
   </si>
   <si>
@@ -74,48 +66,15 @@
     <t>Piercing Ammunition</t>
   </si>
   <si>
-    <t>Shots go through the first enemy hit</t>
-  </si>
-  <si>
-    <t>Unload Munition Conversion</t>
-  </si>
-  <si>
     <t>Chamber Overload</t>
   </si>
   <si>
-    <t>Chamber Excess Load Control</t>
-  </si>
-  <si>
     <t>Shots are fired in a straight line</t>
   </si>
   <si>
-    <t>50% increased fire rate when below 25% generator power and when generator is trapped</t>
-  </si>
-  <si>
-    <t>15% chance to fire explosive shot, which will explode on impact, dealing additional small damage to ships within range</t>
-  </si>
-  <si>
     <t>Will charge a burst fire when weapon is not fired</t>
   </si>
   <si>
-    <t>Will charge 100% more bullets when not firing</t>
-  </si>
-  <si>
-    <t>Unstable Shells</t>
-  </si>
-  <si>
-    <t>Volatile Shells</t>
-  </si>
-  <si>
-    <t>30% chance to fire explosive shot</t>
-  </si>
-  <si>
-    <t>Caliber Increase</t>
-  </si>
-  <si>
-    <t>Shots go through drones and small ships. Shots deal 25% more damage.</t>
-  </si>
-  <si>
     <t>Phasegear</t>
   </si>
   <si>
@@ -125,9 +84,6 @@
     <t>Doublebinding</t>
   </si>
   <si>
-    <t>Deflect 2 hits instead. Cooldown is 10 seconds per layer.</t>
-  </si>
-  <si>
     <t>Become invulnerable for 1 second. Cooldown.</t>
   </si>
   <si>
@@ -137,9 +93,6 @@
     <t>Phasegear cooldown reduced 25%</t>
   </si>
   <si>
-    <t>Phasegear for 2 seconds instead</t>
-  </si>
-  <si>
     <t>Clustercannon</t>
   </si>
   <si>
@@ -158,30 +111,9 @@
     <t>Further increases number of projectiles fired.</t>
   </si>
   <si>
-    <t>10% chance to fire cluster of small bombs instead.</t>
-  </si>
-  <si>
-    <t>Destruction Propagation</t>
-  </si>
-  <si>
     <t>35% increased fire rate</t>
   </si>
   <si>
-    <t>Rocket Propelled Shells</t>
-  </si>
-  <si>
-    <t>Projectiles travel faster and further</t>
-  </si>
-  <si>
-    <t>I.E.D Shell Clustering</t>
-  </si>
-  <si>
-    <t>Proximity Detonation</t>
-  </si>
-  <si>
-    <t>Shells explode near enemy ships</t>
-  </si>
-  <si>
     <t>When a large enemy is destroyed by the Clustercannon, a shot is fired from their destroyed ship.</t>
   </si>
   <si>
@@ -194,13 +126,103 @@
     <t>Thrust Boost</t>
   </si>
   <si>
-    <t>Increase ship movement speed</t>
-  </si>
-  <si>
-    <t>Additional shield per level, last consumed.</t>
-  </si>
-  <si>
-    <t>Hull Shield Lining</t>
+    <t>Crystallic Induction</t>
+  </si>
+  <si>
+    <t>Gain small energy when picking up crystals</t>
+  </si>
+  <si>
+    <t>Shield Accelerator</t>
+  </si>
+  <si>
+    <t>Consume shield for energy when generator is empty</t>
+  </si>
+  <si>
+    <t>Reduce Ship Recharge time 25%</t>
+  </si>
+  <si>
+    <t>Increase ship movement speed 25%</t>
+  </si>
+  <si>
+    <t>Solid Fuel Accelerant</t>
+  </si>
+  <si>
+    <t>Phasegear duration increase 50%</t>
+  </si>
+  <si>
+    <t>Triplebinding</t>
+  </si>
+  <si>
+    <t>Shield 3 layers</t>
+  </si>
+  <si>
+    <t>Shield 2 layers</t>
+  </si>
+  <si>
+    <t>Munition Unload</t>
+  </si>
+  <si>
+    <t>Shots go through the first enemy hit and through drones and small ships</t>
+  </si>
+  <si>
+    <t>50% increased fire rate when below 50% generator power and when generator is trapped</t>
+  </si>
+  <si>
+    <t>Energy cost -50%</t>
+  </si>
+  <si>
+    <t>Casing Recycle</t>
+  </si>
+  <si>
+    <t>Fragmentation Heads</t>
+  </si>
+  <si>
+    <t>Fragmentations will emit from first ship hit by piercing bullet</t>
+  </si>
+  <si>
+    <t>50% reduced energy cost for firing</t>
+  </si>
+  <si>
+    <t>Shell Recycle</t>
+  </si>
+  <si>
+    <t>Muzzle Barrels</t>
+  </si>
+  <si>
+    <t>Shatterheads</t>
+  </si>
+  <si>
+    <t>Double fragmentations emitted</t>
+  </si>
+  <si>
+    <t>Fire additional small bullets when shooting</t>
+  </si>
+  <si>
+    <t>Muzzle Storm</t>
+  </si>
+  <si>
+    <t>Fire more small bullets</t>
+  </si>
+  <si>
+    <t>Propagation</t>
+  </si>
+  <si>
+    <t>+10 rubies</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>+1 hp</t>
+  </si>
+  <si>
+    <t>+1 warp key</t>
+  </si>
+  <si>
+    <t>+1 warp key/20 rubies</t>
   </si>
 </sst>
 </file>
@@ -293,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -328,6 +350,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,11 +665,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110F360-6106-4EF3-AF00-E40FF6813A74}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAABE704-C690-46CE-986B-E84DB5F147C0}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110F360-6106-4EF3-AF00-E40FF6813A74}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,92 +762,116 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="11"/>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1</v>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -757,12 +880,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6A08CB-F726-4B6A-B197-244495265A13}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,109 +897,120 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -885,12 +1019,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A274B03B-4FE8-45AF-85D9-422D626CB9D3}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,106 +1036,87 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
